--- a/moyusi/Keywords/Web/登录135.xlsx
+++ b/moyusi/Keywords/Web/登录135.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>操作类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>检查点_url</t>
+  </si>
+  <si>
+    <t>点击_className</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -493,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -667,44 +671,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2000</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:8" s="5" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>10000</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>32</v>
       </c>
     </row>
